--- a/Shablon/TDS 2024B.xlsx
+++ b/Shablon/TDS 2024B.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="326">
   <si>
     <t>3. Определение метрологических характеристик.</t>
   </si>
@@ -37,21 +37,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
-  </si>
-  <si>
-    <t>СГМетр, лаборатория средств электрорадиотехнических измерений</t>
-  </si>
-  <si>
-    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
-  </si>
-  <si>
-    <t>Аттестат аккредитации № РОСС СОБ 3.00231.2014</t>
-  </si>
-  <si>
-    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
   </si>
   <si>
     <t>_type</t>
@@ -1062,11 +1047,14 @@
   <si>
     <t>071-1074-00МП</t>
   </si>
+  <si>
+    <t>TITLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -1427,85 +1415,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1515,34 +1454,83 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1852,7 +1840,7 @@
   <dimension ref="A1:J159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1866,74 +1854,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="A3" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1947,18 +1927,18 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="A7" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
@@ -1973,114 +1953,114 @@
       <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>320</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="61"/>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="61"/>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="61"/>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
-        <v>324</v>
-      </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="61"/>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
-        <v>325</v>
-      </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="61"/>
-    </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
-        <v>326</v>
-      </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="63" t="s">
-        <v>329</v>
-      </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="61"/>
-    </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58" t="s">
-        <v>328</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="61"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
@@ -2095,7 +2075,7 @@
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2107,112 +2087,112 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="37"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="38" t="s">
+      <c r="F21" s="43"/>
+      <c r="G21" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="H21" s="37"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="65" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="F22" s="43"/>
+      <c r="G22" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="65" t="s">
+      <c r="H22" s="37"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="65"/>
-      <c r="G21" s="46" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="H23" s="37"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="65" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="46"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2220,21 +2200,21 @@
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="1"/>
@@ -2252,7 +2232,7 @@
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2276,7 +2256,7 @@
     </row>
     <row r="30" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2325,390 +2305,390 @@
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
+      <c r="A34" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="J35" s="36"/>
+      <c r="A35" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
       <c r="G39" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
+      <c r="A41" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
     </row>
     <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="44"/>
+        <v>110</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="46"/>
       <c r="G42" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I42" s="37">
+        <v>59</v>
+      </c>
+      <c r="I42" s="45">
         <v>4</v>
       </c>
-      <c r="J42" s="37"/>
+      <c r="J42" s="45"/>
     </row>
     <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="44"/>
+        <v>36</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="46"/>
       <c r="G43" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
+        <v>60</v>
+      </c>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
     </row>
     <row r="44" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44" s="44"/>
+        <v>37</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="46"/>
       <c r="G44" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I44" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="J44" s="49"/>
+        <v>61</v>
+      </c>
+      <c r="I44" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="J44" s="47"/>
     </row>
     <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="44"/>
+        <v>262</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="46"/>
       <c r="G45" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+        <v>62</v>
+      </c>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
     </row>
     <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="44"/>
+      <c r="C46" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="46"/>
       <c r="G46" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
+        <v>63</v>
+      </c>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
     </row>
     <row r="47" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="44"/>
+        <v>38</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="46"/>
       <c r="G47" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
+        <v>64</v>
+      </c>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
     </row>
     <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" s="44"/>
+      <c r="C48" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="46"/>
       <c r="G48" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
+        <v>78</v>
+      </c>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
     </row>
     <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="F49" s="44"/>
+        <v>39</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="46"/>
       <c r="G49" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
+        <v>80</v>
+      </c>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
     </row>
     <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F50" s="44"/>
+        <v>40</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="46"/>
       <c r="G50" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
+        <v>82</v>
+      </c>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
     </row>
     <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="F51" s="44"/>
+      <c r="C51" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="46"/>
       <c r="G51" s="11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
+        <v>84</v>
+      </c>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
     </row>
     <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="F52" s="44"/>
+      <c r="C52" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="46"/>
       <c r="G52" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
+        <v>86</v>
+      </c>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
     </row>
     <row r="53" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
@@ -2783,968 +2763,968 @@
       <c r="J58" s="27"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="J59" s="36"/>
+      <c r="A59" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="38"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="38"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="38"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="38"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
       <c r="G63" s="20" t="s">
         <v>4</v>
       </c>
       <c r="H63" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="51"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
+      <c r="A65" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
     </row>
     <row r="66" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="F66" s="44"/>
+        <v>110</v>
+      </c>
+      <c r="C66" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F66" s="46"/>
       <c r="G66" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="I66" s="37">
+        <v>185</v>
+      </c>
+      <c r="I66" s="45">
         <v>4</v>
       </c>
-      <c r="J66" s="37"/>
+      <c r="J66" s="45"/>
     </row>
     <row r="67" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="F67" s="44"/>
+        <v>36</v>
+      </c>
+      <c r="C67" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67" s="46"/>
       <c r="G67" s="11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
+        <v>187</v>
+      </c>
+      <c r="I67" s="45"/>
+      <c r="J67" s="45"/>
     </row>
     <row r="68" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C68" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="F68" s="44"/>
+        <v>37</v>
+      </c>
+      <c r="C68" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F68" s="46"/>
       <c r="G68" s="11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I68" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="J68" s="49"/>
+        <v>189</v>
+      </c>
+      <c r="I68" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="J68" s="47"/>
     </row>
     <row r="69" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C69" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="F69" s="44"/>
+        <v>262</v>
+      </c>
+      <c r="C69" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="F69" s="46"/>
       <c r="G69" s="11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
+        <v>191</v>
+      </c>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
     </row>
     <row r="70" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="F70" s="44"/>
+      <c r="C70" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" s="46"/>
       <c r="G70" s="11" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
+        <v>193</v>
+      </c>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
     </row>
     <row r="71" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="F71" s="44"/>
+        <v>38</v>
+      </c>
+      <c r="C71" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F71" s="46"/>
       <c r="G71" s="11" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
+        <v>195</v>
+      </c>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
     </row>
     <row r="72" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B72" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="F72" s="44"/>
+      <c r="C72" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F72" s="46"/>
       <c r="G72" s="11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
+        <v>197</v>
+      </c>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
     </row>
     <row r="73" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C73" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="F73" s="44"/>
+        <v>39</v>
+      </c>
+      <c r="C73" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="F73" s="46"/>
       <c r="G73" s="11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
+        <v>199</v>
+      </c>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
     </row>
     <row r="74" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="F74" s="44"/>
+        <v>40</v>
+      </c>
+      <c r="C74" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="F74" s="46"/>
       <c r="G74" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
+        <v>201</v>
+      </c>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
     </row>
     <row r="75" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B75" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="F75" s="44"/>
+      <c r="C75" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F75" s="46"/>
       <c r="G75" s="11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
+        <v>203</v>
+      </c>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
     </row>
     <row r="76" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="F76" s="44"/>
+      <c r="C76" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="F76" s="46"/>
       <c r="G76" s="11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="I76" s="49"/>
-      <c r="J76" s="49"/>
+        <v>205</v>
+      </c>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="B77" s="48"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="48"/>
+      <c r="A77" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="49"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B78" s="46"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="46"/>
+      <c r="A78" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
     </row>
     <row r="79" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C79" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="F79" s="44"/>
+        <v>110</v>
+      </c>
+      <c r="C79" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="F79" s="46"/>
       <c r="G79" s="11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I79" s="37">
+        <v>207</v>
+      </c>
+      <c r="I79" s="45">
         <v>4</v>
       </c>
-      <c r="J79" s="37"/>
+      <c r="J79" s="45"/>
     </row>
     <row r="80" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C80" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="F80" s="44"/>
+        <v>36</v>
+      </c>
+      <c r="C80" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" s="46"/>
+      <c r="E80" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F80" s="46"/>
       <c r="G80" s="11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
+        <v>209</v>
+      </c>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
     </row>
     <row r="81" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C81" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="F81" s="44"/>
+        <v>37</v>
+      </c>
+      <c r="C81" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="F81" s="46"/>
       <c r="G81" s="11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="I81" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="J81" s="49"/>
+        <v>211</v>
+      </c>
+      <c r="I81" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="J81" s="47"/>
     </row>
     <row r="82" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="F82" s="44"/>
+        <v>262</v>
+      </c>
+      <c r="C82" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F82" s="46"/>
       <c r="G82" s="11" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
+        <v>213</v>
+      </c>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
     </row>
     <row r="83" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B83" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C83" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="F83" s="44"/>
+      <c r="C83" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="F83" s="46"/>
       <c r="G83" s="11" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="I83" s="49"/>
-      <c r="J83" s="49"/>
+        <v>215</v>
+      </c>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
     </row>
     <row r="84" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C84" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="F84" s="44"/>
+        <v>38</v>
+      </c>
+      <c r="C84" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="F84" s="46"/>
       <c r="G84" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="I84" s="49"/>
-      <c r="J84" s="49"/>
+        <v>217</v>
+      </c>
+      <c r="I84" s="47"/>
+      <c r="J84" s="47"/>
     </row>
     <row r="85" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B85" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C85" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="F85" s="44"/>
+      <c r="C85" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="F85" s="46"/>
       <c r="G85" s="11" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="I85" s="49"/>
-      <c r="J85" s="49"/>
+        <v>219</v>
+      </c>
+      <c r="I85" s="47"/>
+      <c r="J85" s="47"/>
     </row>
     <row r="86" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C86" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="F86" s="44"/>
+        <v>39</v>
+      </c>
+      <c r="C86" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="F86" s="46"/>
       <c r="G86" s="11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="I86" s="49"/>
-      <c r="J86" s="49"/>
+        <v>221</v>
+      </c>
+      <c r="I86" s="47"/>
+      <c r="J86" s="47"/>
     </row>
     <row r="87" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C87" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="F87" s="44"/>
+        <v>40</v>
+      </c>
+      <c r="C87" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="F87" s="46"/>
       <c r="G87" s="11" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="I87" s="49"/>
-      <c r="J87" s="49"/>
+        <v>223</v>
+      </c>
+      <c r="I87" s="47"/>
+      <c r="J87" s="47"/>
     </row>
     <row r="88" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B88" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="F88" s="44"/>
+      <c r="C88" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D88" s="46"/>
+      <c r="E88" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="F88" s="46"/>
       <c r="G88" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="I88" s="49"/>
-      <c r="J88" s="49"/>
+        <v>225</v>
+      </c>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
     </row>
     <row r="89" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B89" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C89" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="F89" s="44"/>
+      <c r="C89" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="F89" s="46"/>
       <c r="G89" s="11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="I89" s="49"/>
-      <c r="J89" s="49"/>
+        <v>227</v>
+      </c>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="B90" s="48"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="48"/>
-      <c r="J90" s="48"/>
+      <c r="A90" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="49"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="49"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B91" s="46"/>
-      <c r="C91" s="46"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="46"/>
-      <c r="J91" s="46"/>
+      <c r="A91" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
     </row>
     <row r="92" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C92" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="F92" s="44"/>
+        <v>110</v>
+      </c>
+      <c r="C92" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="F92" s="46"/>
       <c r="G92" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I92" s="37">
+        <v>229</v>
+      </c>
+      <c r="I92" s="45">
         <v>4</v>
       </c>
-      <c r="J92" s="37"/>
+      <c r="J92" s="45"/>
     </row>
     <row r="93" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C93" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="F93" s="44"/>
+        <v>36</v>
+      </c>
+      <c r="C93" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="F93" s="46"/>
       <c r="G93" s="11" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="I93" s="37"/>
-      <c r="J93" s="37"/>
+        <v>231</v>
+      </c>
+      <c r="I93" s="45"/>
+      <c r="J93" s="45"/>
     </row>
     <row r="94" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C94" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="F94" s="44"/>
+        <v>37</v>
+      </c>
+      <c r="C94" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" s="46"/>
+      <c r="E94" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="F94" s="46"/>
       <c r="G94" s="11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="I94" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="J94" s="49"/>
+        <v>233</v>
+      </c>
+      <c r="I94" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="J94" s="47"/>
     </row>
     <row r="95" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C95" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="D95" s="44"/>
-      <c r="E95" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="F95" s="44"/>
+        <v>262</v>
+      </c>
+      <c r="C95" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F95" s="46"/>
       <c r="G95" s="11" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="I95" s="49"/>
-      <c r="J95" s="49"/>
+        <v>235</v>
+      </c>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
     </row>
     <row r="96" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B96" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C96" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="D96" s="44"/>
-      <c r="E96" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="F96" s="44"/>
+      <c r="C96" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D96" s="46"/>
+      <c r="E96" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="F96" s="46"/>
       <c r="G96" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="I96" s="49"/>
-      <c r="J96" s="49"/>
+        <v>237</v>
+      </c>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
     </row>
     <row r="97" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C97" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="D97" s="44"/>
-      <c r="E97" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="F97" s="44"/>
+        <v>38</v>
+      </c>
+      <c r="C97" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" s="46"/>
+      <c r="E97" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="F97" s="46"/>
       <c r="G97" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="I97" s="49"/>
-      <c r="J97" s="49"/>
+        <v>239</v>
+      </c>
+      <c r="I97" s="47"/>
+      <c r="J97" s="47"/>
     </row>
     <row r="98" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C98" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="D98" s="44"/>
-      <c r="E98" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="F98" s="44"/>
+      <c r="C98" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D98" s="46"/>
+      <c r="E98" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="F98" s="46"/>
       <c r="G98" s="11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="I98" s="49"/>
-      <c r="J98" s="49"/>
+        <v>241</v>
+      </c>
+      <c r="I98" s="47"/>
+      <c r="J98" s="47"/>
     </row>
     <row r="99" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C99" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="D99" s="44"/>
-      <c r="E99" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="F99" s="44"/>
+        <v>39</v>
+      </c>
+      <c r="C99" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D99" s="46"/>
+      <c r="E99" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="F99" s="46"/>
       <c r="G99" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="I99" s="49"/>
-      <c r="J99" s="49"/>
+        <v>243</v>
+      </c>
+      <c r="I99" s="47"/>
+      <c r="J99" s="47"/>
     </row>
     <row r="100" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C100" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="D100" s="44"/>
-      <c r="E100" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="F100" s="44"/>
+        <v>40</v>
+      </c>
+      <c r="C100" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D100" s="46"/>
+      <c r="E100" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="F100" s="46"/>
       <c r="G100" s="11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="I100" s="49"/>
-      <c r="J100" s="49"/>
+        <v>245</v>
+      </c>
+      <c r="I100" s="47"/>
+      <c r="J100" s="47"/>
     </row>
     <row r="101" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C101" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="D101" s="44"/>
-      <c r="E101" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="F101" s="44"/>
+      <c r="C101" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D101" s="46"/>
+      <c r="E101" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="F101" s="46"/>
       <c r="G101" s="11" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="I101" s="49"/>
-      <c r="J101" s="49"/>
+        <v>247</v>
+      </c>
+      <c r="I101" s="47"/>
+      <c r="J101" s="47"/>
     </row>
     <row r="102" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B102" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C102" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="D102" s="44"/>
-      <c r="E102" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="F102" s="44"/>
+      <c r="C102" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D102" s="46"/>
+      <c r="E102" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="F102" s="46"/>
       <c r="G102" s="11" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="I102" s="49"/>
-      <c r="J102" s="49"/>
+        <v>249</v>
+      </c>
+      <c r="I102" s="47"/>
+      <c r="J102" s="47"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
@@ -3753,578 +3733,578 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B120" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="C120" s="38"/>
-      <c r="D120" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="E120" s="36"/>
-      <c r="F120" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="G120" s="36"/>
-      <c r="H120" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="I120" s="38"/>
-      <c r="J120" s="38"/>
+      <c r="A120" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B120" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="C120" s="44"/>
+      <c r="D120" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="E120" s="42"/>
+      <c r="F120" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="G120" s="42"/>
+      <c r="H120" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="I120" s="44"/>
+      <c r="J120" s="44"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="38"/>
-      <c r="B121" s="38"/>
-      <c r="C121" s="38"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="36"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="38"/>
-      <c r="J121" s="38"/>
+      <c r="A121" s="44"/>
+      <c r="B121" s="44"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="42"/>
+      <c r="E121" s="42"/>
+      <c r="F121" s="42"/>
+      <c r="G121" s="42"/>
+      <c r="H121" s="44"/>
+      <c r="I121" s="44"/>
+      <c r="J121" s="44"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="38"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="38"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="36"/>
-      <c r="G122" s="36"/>
+      <c r="A122" s="44"/>
+      <c r="B122" s="44"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="42"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
+      <c r="G122" s="42"/>
       <c r="H122" s="15" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J122" s="14"/>
     </row>
     <row r="123" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="37">
+      <c r="A123" s="45">
         <v>1</v>
       </c>
       <c r="B123" s="16">
         <v>5</v>
       </c>
-      <c r="C123" s="37" t="s">
-        <v>257</v>
+      <c r="C123" s="45" t="s">
+        <v>252</v>
       </c>
       <c r="D123" s="18">
         <v>2.5</v>
       </c>
-      <c r="E123" s="37" t="s">
+      <c r="E123" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="F123" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="F123" s="12" t="s">
+      <c r="G123" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="I123" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="G123" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="H123" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I123" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="J123" s="37" t="s">
-        <v>257</v>
+      <c r="J123" s="45" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="37"/>
+      <c r="A124" s="45"/>
       <c r="B124" s="16">
         <v>100</v>
       </c>
-      <c r="C124" s="37"/>
+      <c r="C124" s="45"/>
       <c r="D124" s="18">
         <v>50</v>
       </c>
-      <c r="E124" s="37"/>
+      <c r="E124" s="45"/>
       <c r="F124" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="G124" s="37"/>
+        <v>259</v>
+      </c>
+      <c r="G124" s="45"/>
       <c r="H124" s="12" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I124" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="J124" s="37"/>
+        <v>268</v>
+      </c>
+      <c r="J124" s="45"/>
     </row>
     <row r="125" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="37"/>
+      <c r="A125" s="45"/>
       <c r="B125" s="16">
         <v>500</v>
       </c>
-      <c r="C125" s="37"/>
+      <c r="C125" s="45"/>
       <c r="D125" s="18">
         <v>250</v>
       </c>
-      <c r="E125" s="37"/>
+      <c r="E125" s="45"/>
       <c r="F125" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="G125" s="37"/>
+        <v>260</v>
+      </c>
+      <c r="G125" s="45"/>
       <c r="H125" s="12" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I125" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="J125" s="37"/>
+        <v>255</v>
+      </c>
+      <c r="J125" s="45"/>
     </row>
     <row r="126" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="37"/>
+      <c r="A126" s="45"/>
       <c r="B126" s="16">
         <v>1</v>
       </c>
-      <c r="C126" s="37" t="s">
-        <v>270</v>
+      <c r="C126" s="45" t="s">
+        <v>265</v>
       </c>
       <c r="D126" s="18">
         <v>500</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="G126" s="37" t="s">
-        <v>292</v>
+        <v>261</v>
+      </c>
+      <c r="G126" s="45" t="s">
+        <v>287</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I126" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="J126" s="37" t="s">
-        <v>293</v>
+        <v>269</v>
+      </c>
+      <c r="J126" s="45" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="37"/>
+      <c r="A127" s="45"/>
       <c r="B127" s="16">
         <v>5</v>
       </c>
-      <c r="C127" s="37"/>
+      <c r="C127" s="45"/>
       <c r="D127" s="18">
         <v>2.5</v>
       </c>
       <c r="E127" s="13" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="G127" s="37"/>
+        <v>264</v>
+      </c>
+      <c r="G127" s="45"/>
       <c r="H127" s="12" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I127" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="J127" s="37"/>
+        <v>270</v>
+      </c>
+      <c r="J127" s="45"/>
     </row>
     <row r="128" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="37">
+      <c r="A128" s="45">
         <v>2</v>
       </c>
       <c r="B128" s="16">
         <v>5</v>
       </c>
-      <c r="C128" s="37" t="s">
-        <v>257</v>
+      <c r="C128" s="45" t="s">
+        <v>252</v>
       </c>
       <c r="D128" s="18">
         <v>2.5</v>
       </c>
-      <c r="E128" s="37" t="s">
-        <v>258</v>
+      <c r="E128" s="45" t="s">
+        <v>253</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="G128" s="37" t="s">
-        <v>257</v>
+        <v>271</v>
+      </c>
+      <c r="G128" s="45" t="s">
+        <v>252</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I128" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="J128" s="37" t="s">
-        <v>257</v>
+        <v>263</v>
+      </c>
+      <c r="J128" s="45" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="37"/>
+      <c r="A129" s="45"/>
       <c r="B129" s="16">
         <v>100</v>
       </c>
-      <c r="C129" s="37"/>
+      <c r="C129" s="45"/>
       <c r="D129" s="18">
         <v>50</v>
       </c>
-      <c r="E129" s="37"/>
+      <c r="E129" s="45"/>
       <c r="F129" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="G129" s="37"/>
+        <v>272</v>
+      </c>
+      <c r="G129" s="45"/>
       <c r="H129" s="12" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="J129" s="37"/>
+        <v>268</v>
+      </c>
+      <c r="J129" s="45"/>
     </row>
     <row r="130" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="37"/>
+      <c r="A130" s="45"/>
       <c r="B130" s="16">
         <v>500</v>
       </c>
-      <c r="C130" s="37"/>
+      <c r="C130" s="45"/>
       <c r="D130" s="18">
         <v>250</v>
       </c>
-      <c r="E130" s="37"/>
+      <c r="E130" s="45"/>
       <c r="F130" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="G130" s="37"/>
+        <v>273</v>
+      </c>
+      <c r="G130" s="45"/>
       <c r="H130" s="12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I130" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="J130" s="37"/>
+        <v>255</v>
+      </c>
+      <c r="J130" s="45"/>
     </row>
     <row r="131" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="37"/>
+      <c r="A131" s="45"/>
       <c r="B131" s="16">
         <v>1</v>
       </c>
-      <c r="C131" s="37" t="s">
-        <v>270</v>
+      <c r="C131" s="45" t="s">
+        <v>265</v>
       </c>
       <c r="D131" s="18">
         <v>500</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="G131" s="37" t="s">
-        <v>292</v>
+        <v>274</v>
+      </c>
+      <c r="G131" s="45" t="s">
+        <v>287</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I131" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="J131" s="37" t="s">
-        <v>293</v>
+        <v>269</v>
+      </c>
+      <c r="J131" s="45" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="37"/>
+      <c r="A132" s="45"/>
       <c r="B132" s="16">
         <v>5</v>
       </c>
-      <c r="C132" s="37"/>
+      <c r="C132" s="45"/>
       <c r="D132" s="18">
         <v>2.5</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="G132" s="37"/>
+        <v>275</v>
+      </c>
+      <c r="G132" s="45"/>
       <c r="H132" s="12" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I132" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="J132" s="37"/>
+        <v>270</v>
+      </c>
+      <c r="J132" s="45"/>
     </row>
     <row r="133" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="37">
+      <c r="A133" s="45">
         <v>3</v>
       </c>
       <c r="B133" s="16">
         <v>5</v>
       </c>
-      <c r="C133" s="37" t="s">
-        <v>257</v>
+      <c r="C133" s="45" t="s">
+        <v>252</v>
       </c>
       <c r="D133" s="18">
         <v>2.5</v>
       </c>
-      <c r="E133" s="37" t="s">
-        <v>258</v>
+      <c r="E133" s="45" t="s">
+        <v>253</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="G133" s="37" t="s">
-        <v>257</v>
+        <v>276</v>
+      </c>
+      <c r="G133" s="45" t="s">
+        <v>252</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I133" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="J133" s="37" t="s">
-        <v>257</v>
+        <v>263</v>
+      </c>
+      <c r="J133" s="45" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="37"/>
+      <c r="A134" s="45"/>
       <c r="B134" s="16">
         <v>100</v>
       </c>
-      <c r="C134" s="37"/>
+      <c r="C134" s="45"/>
       <c r="D134" s="18">
         <v>50</v>
       </c>
-      <c r="E134" s="37"/>
+      <c r="E134" s="45"/>
       <c r="F134" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="G134" s="37"/>
+        <v>277</v>
+      </c>
+      <c r="G134" s="45"/>
       <c r="H134" s="12" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I134" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="J134" s="37"/>
+        <v>268</v>
+      </c>
+      <c r="J134" s="45"/>
     </row>
     <row r="135" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="37"/>
+      <c r="A135" s="45"/>
       <c r="B135" s="16">
         <v>500</v>
       </c>
-      <c r="C135" s="37"/>
+      <c r="C135" s="45"/>
       <c r="D135" s="18">
         <v>250</v>
       </c>
-      <c r="E135" s="37"/>
+      <c r="E135" s="45"/>
       <c r="F135" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="G135" s="37"/>
+        <v>278</v>
+      </c>
+      <c r="G135" s="45"/>
       <c r="H135" s="12" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I135" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="J135" s="37"/>
+        <v>255</v>
+      </c>
+      <c r="J135" s="45"/>
     </row>
     <row r="136" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="37"/>
+      <c r="A136" s="45"/>
       <c r="B136" s="16">
         <v>1</v>
       </c>
-      <c r="C136" s="37" t="s">
-        <v>270</v>
+      <c r="C136" s="45" t="s">
+        <v>265</v>
       </c>
       <c r="D136" s="18">
         <v>500</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="G136" s="37" t="s">
-        <v>292</v>
+        <v>279</v>
+      </c>
+      <c r="G136" s="45" t="s">
+        <v>287</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I136" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="J136" s="37" t="s">
-        <v>293</v>
+        <v>269</v>
+      </c>
+      <c r="J136" s="45" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="37"/>
+      <c r="A137" s="45"/>
       <c r="B137" s="16">
         <v>5</v>
       </c>
-      <c r="C137" s="37"/>
+      <c r="C137" s="45"/>
       <c r="D137" s="18">
         <v>2.5</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="G137" s="37"/>
+        <v>280</v>
+      </c>
+      <c r="G137" s="45"/>
       <c r="H137" s="12" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I137" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="J137" s="37"/>
+        <v>270</v>
+      </c>
+      <c r="J137" s="45"/>
     </row>
     <row r="138" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="37">
+      <c r="A138" s="45">
         <v>4</v>
       </c>
       <c r="B138" s="16">
         <v>5</v>
       </c>
-      <c r="C138" s="37" t="s">
-        <v>257</v>
+      <c r="C138" s="45" t="s">
+        <v>252</v>
       </c>
       <c r="D138" s="18">
         <v>2.5</v>
       </c>
-      <c r="E138" s="37" t="s">
-        <v>258</v>
+      <c r="E138" s="45" t="s">
+        <v>253</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="G138" s="37" t="s">
-        <v>257</v>
+        <v>281</v>
+      </c>
+      <c r="G138" s="45" t="s">
+        <v>252</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I138" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="J138" s="37" t="s">
-        <v>257</v>
+        <v>263</v>
+      </c>
+      <c r="J138" s="45" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="37"/>
+      <c r="A139" s="45"/>
       <c r="B139" s="16">
         <v>100</v>
       </c>
-      <c r="C139" s="37"/>
+      <c r="C139" s="45"/>
       <c r="D139" s="18">
         <v>50</v>
       </c>
-      <c r="E139" s="37"/>
+      <c r="E139" s="45"/>
       <c r="F139" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="G139" s="37"/>
+        <v>282</v>
+      </c>
+      <c r="G139" s="45"/>
       <c r="H139" s="12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I139" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="J139" s="37"/>
+        <v>268</v>
+      </c>
+      <c r="J139" s="45"/>
     </row>
     <row r="140" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A140" s="37"/>
+      <c r="A140" s="45"/>
       <c r="B140" s="16">
         <v>500</v>
       </c>
-      <c r="C140" s="37"/>
+      <c r="C140" s="45"/>
       <c r="D140" s="18">
         <v>250</v>
       </c>
-      <c r="E140" s="37"/>
+      <c r="E140" s="45"/>
       <c r="F140" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="G140" s="37"/>
+        <v>283</v>
+      </c>
+      <c r="G140" s="45"/>
       <c r="H140" s="12" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I140" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="J140" s="37"/>
+        <v>255</v>
+      </c>
+      <c r="J140" s="45"/>
     </row>
     <row r="141" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="37"/>
+      <c r="A141" s="45"/>
       <c r="B141" s="16">
         <v>1</v>
       </c>
-      <c r="C141" s="37" t="s">
-        <v>270</v>
+      <c r="C141" s="45" t="s">
+        <v>265</v>
       </c>
       <c r="D141" s="18">
         <v>500</v>
       </c>
       <c r="E141" s="13" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="G141" s="37" t="s">
-        <v>292</v>
+        <v>284</v>
+      </c>
+      <c r="G141" s="45" t="s">
+        <v>287</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I141" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="J141" s="37" t="s">
-        <v>293</v>
+        <v>269</v>
+      </c>
+      <c r="J141" s="45" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="37"/>
+      <c r="A142" s="45"/>
       <c r="B142" s="16">
         <v>5</v>
       </c>
-      <c r="C142" s="37"/>
+      <c r="C142" s="45"/>
       <c r="D142" s="18">
         <v>2.5</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="G142" s="37"/>
+        <v>285</v>
+      </c>
+      <c r="G142" s="45"/>
       <c r="H142" s="12" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I142" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="J142" s="37"/>
+        <v>270</v>
+      </c>
+      <c r="J142" s="45"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
@@ -4332,138 +4312,138 @@
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B145" s="39"/>
-      <c r="C145" s="39"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="39"/>
-      <c r="F145" s="39"/>
-      <c r="G145" s="39"/>
-      <c r="H145" s="39"/>
-      <c r="I145" s="39"/>
-      <c r="J145" s="39"/>
+      <c r="A145" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B145" s="63"/>
+      <c r="C145" s="63"/>
+      <c r="D145" s="63"/>
+      <c r="E145" s="63"/>
+      <c r="F145" s="63"/>
+      <c r="G145" s="63"/>
+      <c r="H145" s="63"/>
+      <c r="I145" s="63"/>
+      <c r="J145" s="63"/>
     </row>
     <row r="146" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B146" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C146" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="D146" s="30"/>
-      <c r="E146" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="F146" s="30"/>
-      <c r="G146" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="H146" s="30"/>
-      <c r="I146" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J146" s="36"/>
+      <c r="A146" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B146" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C146" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="D146" s="53"/>
+      <c r="E146" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="F146" s="53"/>
+      <c r="G146" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H146" s="53"/>
+      <c r="I146" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="J146" s="42"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="38"/>
-      <c r="B147" s="38"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="32"/>
-      <c r="E147" s="31"/>
-      <c r="F147" s="32"/>
-      <c r="G147" s="31"/>
-      <c r="H147" s="32"/>
-      <c r="I147" s="36"/>
-      <c r="J147" s="36"/>
+      <c r="A147" s="44"/>
+      <c r="B147" s="44"/>
+      <c r="C147" s="54"/>
+      <c r="D147" s="55"/>
+      <c r="E147" s="54"/>
+      <c r="F147" s="55"/>
+      <c r="G147" s="54"/>
+      <c r="H147" s="55"/>
+      <c r="I147" s="42"/>
+      <c r="J147" s="42"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" s="38"/>
-      <c r="B148" s="38"/>
-      <c r="C148" s="33"/>
-      <c r="D148" s="34"/>
-      <c r="E148" s="33"/>
-      <c r="F148" s="34"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="34"/>
-      <c r="I148" s="36"/>
-      <c r="J148" s="36"/>
+      <c r="A148" s="44"/>
+      <c r="B148" s="44"/>
+      <c r="C148" s="56"/>
+      <c r="D148" s="57"/>
+      <c r="E148" s="56"/>
+      <c r="F148" s="57"/>
+      <c r="G148" s="56"/>
+      <c r="H148" s="57"/>
+      <c r="I148" s="42"/>
+      <c r="J148" s="42"/>
     </row>
     <row r="149" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A149" s="17">
         <v>1</v>
       </c>
-      <c r="B149" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C149" s="29">
+      <c r="B149" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C149" s="52">
         <v>0.5</v>
       </c>
-      <c r="D149" s="30"/>
-      <c r="E149" s="29">
+      <c r="D149" s="53"/>
+      <c r="E149" s="52">
         <v>500</v>
       </c>
-      <c r="F149" s="30"/>
-      <c r="G149" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="H149" s="35"/>
-      <c r="I149" s="36">
+      <c r="F149" s="53"/>
+      <c r="G149" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="H149" s="66"/>
+      <c r="I149" s="42">
         <v>2.1</v>
       </c>
-      <c r="J149" s="36"/>
+      <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A150" s="17">
         <v>2</v>
       </c>
-      <c r="B150" s="37"/>
-      <c r="C150" s="31"/>
-      <c r="D150" s="32"/>
-      <c r="E150" s="31"/>
-      <c r="F150" s="32"/>
-      <c r="G150" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H150" s="35"/>
-      <c r="I150" s="36"/>
-      <c r="J150" s="36"/>
+      <c r="B150" s="45"/>
+      <c r="C150" s="54"/>
+      <c r="D150" s="55"/>
+      <c r="E150" s="54"/>
+      <c r="F150" s="55"/>
+      <c r="G150" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="H150" s="66"/>
+      <c r="I150" s="42"/>
+      <c r="J150" s="42"/>
     </row>
     <row r="151" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A151" s="17">
         <v>3</v>
       </c>
-      <c r="B151" s="37"/>
-      <c r="C151" s="31"/>
-      <c r="D151" s="32"/>
-      <c r="E151" s="31"/>
-      <c r="F151" s="32"/>
-      <c r="G151" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="H151" s="35"/>
-      <c r="I151" s="36"/>
-      <c r="J151" s="36"/>
+      <c r="B151" s="45"/>
+      <c r="C151" s="54"/>
+      <c r="D151" s="55"/>
+      <c r="E151" s="54"/>
+      <c r="F151" s="55"/>
+      <c r="G151" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="H151" s="66"/>
+      <c r="I151" s="42"/>
+      <c r="J151" s="42"/>
     </row>
     <row r="152" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A152" s="17">
         <v>4</v>
       </c>
-      <c r="B152" s="37"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="34"/>
-      <c r="G152" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="H152" s="35"/>
-      <c r="I152" s="36"/>
-      <c r="J152" s="36"/>
+      <c r="B152" s="45"/>
+      <c r="C152" s="56"/>
+      <c r="D152" s="57"/>
+      <c r="E152" s="56"/>
+      <c r="F152" s="57"/>
+      <c r="G152" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="H152" s="66"/>
+      <c r="I152" s="42"/>
+      <c r="J152" s="42"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
@@ -4471,20 +4451,20 @@
       </c>
     </row>
     <row r="157" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A157" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="B157" s="42"/>
+      <c r="A157" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B157" s="50"/>
       <c r="C157" s="7"/>
       <c r="D157" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E157" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="F157" s="54"/>
+        <v>90</v>
+      </c>
+      <c r="E157" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="F157" s="59"/>
       <c r="G157" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H157" s="10"/>
       <c r="I157" s="1"/>
@@ -4501,14 +4481,14 @@
       <c r="I158" s="1"/>
     </row>
     <row r="159" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A159" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B159" s="42"/>
-      <c r="C159" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D159" s="53"/>
+      <c r="A159" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B159" s="50"/>
+      <c r="C159" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D159" s="51"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -4517,6 +4497,186 @@
     </row>
   </sheetData>
   <mergeCells count="204">
+    <mergeCell ref="E123:E125"/>
+    <mergeCell ref="G123:G125"/>
+    <mergeCell ref="I146:J148"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="G146:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="C146:D148"/>
+    <mergeCell ref="C149:D152"/>
+    <mergeCell ref="E149:F152"/>
+    <mergeCell ref="F120:G122"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I149:J152"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B120:C122"/>
+    <mergeCell ref="D120:E122"/>
+    <mergeCell ref="A145:J145"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="J123:J125"/>
+    <mergeCell ref="J126:J127"/>
+    <mergeCell ref="J128:J130"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="J133:J135"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="J138:J140"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="H120:J121"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:D39"/>
+    <mergeCell ref="A90:J90"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="I92:J93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="I94:J102"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G35:H38"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="E35:F39"/>
+    <mergeCell ref="I35:J39"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="I44:J52"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="A146:A148"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="E146:F148"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="I79:J80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="I66:J67"/>
+    <mergeCell ref="I68:J76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="I81:J89"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:D63"/>
+    <mergeCell ref="E59:F63"/>
+    <mergeCell ref="G59:H62"/>
+    <mergeCell ref="I59:J63"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="G138:G140"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="G128:G130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="E133:E135"/>
+    <mergeCell ref="G133:G135"/>
+    <mergeCell ref="C136:C137"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
@@ -4541,186 +4701,6 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:D63"/>
-    <mergeCell ref="E59:F63"/>
-    <mergeCell ref="G59:H62"/>
-    <mergeCell ref="I59:J63"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="G138:G140"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="G128:G130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="E133:E135"/>
-    <mergeCell ref="G133:G135"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="I81:J89"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="I79:J80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="I66:J67"/>
-    <mergeCell ref="I68:J76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="B146:B148"/>
-    <mergeCell ref="E146:F148"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="I42:J43"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G35:H38"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="E35:F39"/>
-    <mergeCell ref="I35:J39"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="I44:J52"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="A90:J90"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="I92:J93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="I94:J102"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:D39"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I149:J152"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B120:C122"/>
-    <mergeCell ref="D120:E122"/>
-    <mergeCell ref="A145:J145"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="J123:J125"/>
-    <mergeCell ref="J126:J127"/>
-    <mergeCell ref="J128:J130"/>
-    <mergeCell ref="J131:J132"/>
-    <mergeCell ref="J133:J135"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="J138:J140"/>
-    <mergeCell ref="J141:J142"/>
-    <mergeCell ref="H120:J121"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="E123:E125"/>
-    <mergeCell ref="G123:G125"/>
-    <mergeCell ref="I146:J148"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="G146:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="C146:D148"/>
-    <mergeCell ref="C149:D152"/>
-    <mergeCell ref="E149:F152"/>
-    <mergeCell ref="F120:G122"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G152:H152"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
